--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Project Planner</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Software Architecture Report RF3</t>
+  </si>
+  <si>
+    <t>Software Detailed Design RF4</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1060,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1067,7 +1070,8 @@
     <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.58203125" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="8" max="27" width="5.58203125" style="1" customWidth="1"/>
+    <col min="28" max="34" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
@@ -1565,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
@@ -1589,8 +1593,8 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
-        <v>30</v>
+      <c r="B16" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
@@ -1605,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4150" windowHeight="4090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -598,6 +598,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -645,9 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1060,8 +1060,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1085,13 +1085,13 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1099,66 +1099,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="30" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1185,12 +1185,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="7">
@@ -1513,7 +1513,7 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="7">
@@ -1589,11 +1589,11 @@
         <v>2</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="7">
@@ -1609,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
